--- a/Import Data/16x14.xlsx
+++ b/Import Data/16x14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe1ca5d0fde44768/Documents/UCSD/dbf-propulsions/Import Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F63DD0A-C61F-46EB-9318-3C4AFE95B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B31BD-9B2B-4330-B9AE-3531798289CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7608" yWindow="2208" windowWidth="20736" windowHeight="10440" xr2:uid="{04D2B5CE-1AB5-4B09-AE75-24BE9C593899}"/>
+    <workbookView xWindow="20085" yWindow="4725" windowWidth="14130" windowHeight="14790" xr2:uid="{04D2B5CE-1AB5-4B09-AE75-24BE9C593899}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="46">
   <si>
     <t>16x14</t>
   </si>
@@ -196,9 +174,6 @@
   </si>
   <si>
     <t>(Lbf)</t>
-  </si>
-  <si>
-    <t>1.05-NaN</t>
   </si>
 </sst>
 </file>
@@ -554,12 +529,12 @@
   <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B526" sqref="B526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +545,7 @@
         <v>41994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -599,12 +574,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -615,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -638,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -661,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -669,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -686,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -700,7 +675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -726,7 +701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -746,7 +721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -772,7 +747,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.6</v>
       </c>
@@ -798,7 +773,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.2</v>
       </c>
@@ -824,7 +799,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.7</v>
       </c>
@@ -850,7 +825,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.2999999999999998</v>
       </c>
@@ -876,7 +851,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.9</v>
       </c>
@@ -902,7 +877,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.5</v>
       </c>
@@ -928,7 +903,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -954,7 +929,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.5999999999999996</v>
       </c>
@@ -980,7 +955,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.2</v>
       </c>
@@ -1006,7 +981,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.8</v>
       </c>
@@ -1032,7 +1007,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.3</v>
       </c>
@@ -1058,7 +1033,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.9</v>
       </c>
@@ -1084,7 +1059,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5</v>
       </c>
@@ -1110,7 +1085,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8.1</v>
       </c>
@@ -1136,7 +1111,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8.6</v>
       </c>
@@ -1162,7 +1137,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9.1999999999999993</v>
       </c>
@@ -1188,7 +1163,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9.8000000000000007</v>
       </c>
@@ -1214,7 +1189,7 @@
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10.4</v>
       </c>
@@ -1240,7 +1215,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10.9</v>
       </c>
@@ -1266,7 +1241,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11.5</v>
       </c>
@@ -1292,7 +1267,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12.1</v>
       </c>
@@ -1318,7 +1293,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12.7</v>
       </c>
@@ -1344,7 +1319,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13.3</v>
       </c>
@@ -1370,7 +1345,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13.8</v>
       </c>
@@ -1396,7 +1371,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14.4</v>
       </c>
@@ -1422,7 +1397,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1448,7 +1423,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15.6</v>
       </c>
@@ -1474,7 +1449,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16.100000000000001</v>
       </c>
@@ -1500,7 +1475,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16.7</v>
       </c>
@@ -1526,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1586,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1612,7 +1587,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.2</v>
       </c>
@@ -1638,7 +1613,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.2999999999999998</v>
       </c>
@@ -1664,7 +1639,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3.5</v>
       </c>
@@ -1690,7 +1665,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.5999999999999996</v>
       </c>
@@ -1716,7 +1691,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.8</v>
       </c>
@@ -1742,7 +1717,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.9</v>
       </c>
@@ -1768,7 +1743,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8.1</v>
       </c>
@@ -1794,7 +1769,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9.1999999999999993</v>
       </c>
@@ -1820,7 +1795,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10.4</v>
       </c>
@@ -1846,7 +1821,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11.5</v>
       </c>
@@ -1872,7 +1847,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12.7</v>
       </c>
@@ -1898,7 +1873,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>13.8</v>
       </c>
@@ -1924,7 +1899,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -1950,7 +1925,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16.100000000000001</v>
       </c>
@@ -1976,7 +1951,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17.3</v>
       </c>
@@ -2002,7 +1977,7 @@
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18.399999999999999</v>
       </c>
@@ -2028,7 +2003,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19.600000000000001</v>
       </c>
@@ -2054,7 +2029,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20.7</v>
       </c>
@@ -2080,7 +2055,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21.9</v>
       </c>
@@ -2106,7 +2081,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23</v>
       </c>
@@ -2132,7 +2107,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>24.2</v>
       </c>
@@ -2158,7 +2133,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25.4</v>
       </c>
@@ -2184,7 +2159,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>26.5</v>
       </c>
@@ -2210,7 +2185,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27.7</v>
       </c>
@@ -2236,7 +2211,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>28.8</v>
       </c>
@@ -2262,7 +2237,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>30</v>
       </c>
@@ -2288,7 +2263,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>31.1</v>
       </c>
@@ -2314,7 +2289,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>32.299999999999997</v>
       </c>
@@ -2340,7 +2315,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>33.4</v>
       </c>
@@ -2366,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2380,7 +2355,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2426,7 +2401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2452,7 +2427,7 @@
         <v>2.036</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.7</v>
       </c>
@@ -2478,7 +2453,7 @@
         <v>2.0369999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3.5</v>
       </c>
@@ -2504,7 +2479,7 @@
         <v>2.0379999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5.2</v>
       </c>
@@ -2530,7 +2505,7 @@
         <v>2.0390000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6.9</v>
       </c>
@@ -2556,7 +2531,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8.6</v>
       </c>
@@ -2582,7 +2557,7 @@
         <v>2.0409999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10.4</v>
       </c>
@@ -2608,7 +2583,7 @@
         <v>2.0409999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12.1</v>
       </c>
@@ -2634,7 +2609,7 @@
         <v>2.0409999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>13.8</v>
       </c>
@@ -2660,7 +2635,7 @@
         <v>2.0390000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15.5</v>
       </c>
@@ -2686,7 +2661,7 @@
         <v>2.0369999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>17.3</v>
       </c>
@@ -2712,7 +2687,7 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>19</v>
       </c>
@@ -2738,7 +2713,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20.7</v>
       </c>
@@ -2764,7 +2739,7 @@
         <v>2.0019999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22.4</v>
       </c>
@@ -2790,7 +2765,7 @@
         <v>1.9630000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24.2</v>
       </c>
@@ -2816,7 +2791,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>25.9</v>
       </c>
@@ -2842,7 +2817,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>27.6</v>
       </c>
@@ -2868,7 +2843,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>29.4</v>
       </c>
@@ -2894,7 +2869,7 @@
         <v>1.6140000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>31.1</v>
       </c>
@@ -2920,7 +2895,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>32.799999999999997</v>
       </c>
@@ -2946,7 +2921,7 @@
         <v>1.3680000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>34.5</v>
       </c>
@@ -2972,7 +2947,7 @@
         <v>1.242</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>36.299999999999997</v>
       </c>
@@ -2998,7 +2973,7 @@
         <v>1.113</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>38</v>
       </c>
@@ -3024,7 +2999,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>39.700000000000003</v>
       </c>
@@ -3050,7 +3025,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>41.4</v>
       </c>
@@ -3076,7 +3051,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>43.2</v>
       </c>
@@ -3102,7 +3077,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>44.9</v>
       </c>
@@ -3128,7 +3103,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>46.6</v>
       </c>
@@ -3154,7 +3129,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>48.4</v>
       </c>
@@ -3180,7 +3155,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>50.1</v>
       </c>
@@ -3206,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3195,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3246,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3266,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3292,7 +3267,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2.2999999999999998</v>
       </c>
@@ -3318,7 +3293,7 @@
         <v>3.7320000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4.5999999999999996</v>
       </c>
@@ -3344,7 +3319,7 @@
         <v>3.7349999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6.9</v>
       </c>
@@ -3370,7 +3345,7 @@
         <v>3.7370000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9.1999999999999993</v>
       </c>
@@ -3396,7 +3371,7 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11.5</v>
       </c>
@@ -3422,7 +3397,7 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13.8</v>
       </c>
@@ -3448,7 +3423,7 @@
         <v>3.7360000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>16.100000000000001</v>
       </c>
@@ -3474,7 +3449,7 @@
         <v>3.7309999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>18.399999999999999</v>
       </c>
@@ -3500,7 +3475,7 @@
         <v>3.7240000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20.7</v>
       </c>
@@ -3526,7 +3501,7 @@
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>23</v>
       </c>
@@ -3552,7 +3527,7 @@
         <v>3.6949999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>25.3</v>
       </c>
@@ -3578,7 +3553,7 @@
         <v>3.669</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>27.6</v>
       </c>
@@ -3604,7 +3579,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>29.9</v>
       </c>
@@ -3630,7 +3605,7 @@
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>32.299999999999997</v>
       </c>
@@ -3656,7 +3631,7 @@
         <v>3.423</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>34.6</v>
       </c>
@@ -3682,7 +3657,7 @@
         <v>3.2749999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>36.9</v>
       </c>
@@ -3708,7 +3683,7 @@
         <v>3.0920000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>39.200000000000003</v>
       </c>
@@ -3734,7 +3709,7 @@
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>41.5</v>
       </c>
@@ -3760,7 +3735,7 @@
         <v>2.6589999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>43.8</v>
       </c>
@@ -3786,7 +3761,7 @@
         <v>2.4369999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>46.1</v>
       </c>
@@ -3812,7 +3787,7 @@
         <v>2.2109999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>48.4</v>
       </c>
@@ -3838,7 +3813,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>50.7</v>
       </c>
@@ -3864,7 +3839,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>53</v>
       </c>
@@ -3890,7 +3865,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>55.3</v>
       </c>
@@ -3916,7 +3891,7 @@
         <v>1.264</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>57.6</v>
       </c>
@@ -3942,7 +3917,7 @@
         <v>1.0149999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>59.9</v>
       </c>
@@ -3968,7 +3943,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>62.2</v>
       </c>
@@ -3994,7 +3969,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>64.5</v>
       </c>
@@ -4020,7 +3995,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>66.8</v>
       </c>
@@ -4046,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -4060,7 +4035,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4086,7 +4061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4106,7 +4081,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4132,7 +4107,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2.9</v>
       </c>
@@ -4158,7 +4133,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5.7</v>
       </c>
@@ -4184,7 +4159,7 @@
         <v>6.1050000000000004</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8.6</v>
       </c>
@@ -4210,7 +4185,7 @@
         <v>6.109</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11.5</v>
       </c>
@@ -4236,7 +4211,7 @@
         <v>6.1079999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14.4</v>
       </c>
@@ -4262,7 +4237,7 @@
         <v>6.1029999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17.2</v>
       </c>
@@ -4288,7 +4263,7 @@
         <v>6.0919999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>20.100000000000001</v>
       </c>
@@ -4314,7 +4289,7 @@
         <v>6.0739999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>23</v>
       </c>
@@ -4340,7 +4315,7 @@
         <v>6.048</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25.9</v>
       </c>
@@ -4366,7 +4341,7 @@
         <v>6.0129999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>28.7</v>
       </c>
@@ -4392,7 +4367,7 @@
         <v>5.9660000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>31.6</v>
       </c>
@@ -4418,7 +4393,7 @@
         <v>5.9039999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>34.5</v>
       </c>
@@ -4444,7 +4419,7 @@
         <v>5.8109999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>37.4</v>
       </c>
@@ -4470,7 +4445,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>40.200000000000003</v>
       </c>
@@ -4496,7 +4471,7 @@
         <v>5.4550000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>43.1</v>
       </c>
@@ -4522,7 +4497,7 @@
         <v>5.202</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>46</v>
       </c>
@@ -4548,7 +4523,7 @@
         <v>4.899</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>48.9</v>
       </c>
@@ -4574,7 +4549,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>51.7</v>
       </c>
@@ -4600,7 +4575,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>54.6</v>
       </c>
@@ -4626,7 +4601,7 @@
         <v>3.8610000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>57.5</v>
       </c>
@@ -4652,7 +4627,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>60.3</v>
       </c>
@@ -4678,7 +4653,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>63.2</v>
       </c>
@@ -4704,7 +4679,7 @@
         <v>2.7709999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>66.099999999999994</v>
       </c>
@@ -4730,7 +4705,7 @@
         <v>2.3929999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>69</v>
       </c>
@@ -4756,7 +4731,7 @@
         <v>2.0070000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>71.8</v>
       </c>
@@ -4782,7 +4757,7 @@
         <v>1.617</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>74.7</v>
       </c>
@@ -4808,7 +4783,7 @@
         <v>1.2190000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>77.599999999999994</v>
       </c>
@@ -4834,7 +4809,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>80.5</v>
       </c>
@@ -4860,7 +4835,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>83.3</v>
       </c>
@@ -4886,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4900,7 +4875,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4926,7 +4901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4946,7 +4921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4972,7 +4947,7 @@
         <v>9.0990000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3.5</v>
       </c>
@@ -4998,7 +4973,7 @@
         <v>9.1159999999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6.9</v>
       </c>
@@ -5024,7 +4999,7 @@
         <v>9.1289999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.4</v>
       </c>
@@ -5050,7 +5025,7 @@
         <v>9.1329999999999991</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13.8</v>
       </c>
@@ -5076,7 +5051,7 @@
         <v>9.1310000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>17.3</v>
       </c>
@@ -5102,7 +5077,7 @@
         <v>9.1180000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20.7</v>
       </c>
@@ -5128,7 +5103,7 @@
         <v>9.0939999999999994</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>24.2</v>
       </c>
@@ -5154,7 +5129,7 @@
         <v>9.0559999999999992</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>27.6</v>
       </c>
@@ -5180,7 +5155,7 @@
         <v>9.0039999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>31.1</v>
       </c>
@@ -5206,7 +5181,7 @@
         <v>8.9329999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>34.5</v>
       </c>
@@ -5232,7 +5207,7 @@
         <v>8.8409999999999993</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>38</v>
       </c>
@@ -5258,7 +5233,7 @@
         <v>8.7240000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>41.4</v>
       </c>
@@ -5284,7 +5259,7 @@
         <v>8.5709999999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>44.9</v>
       </c>
@@ -5310,7 +5285,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>48.3</v>
       </c>
@@ -5336,7 +5311,7 @@
         <v>8.0020000000000007</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>51.8</v>
       </c>
@@ -5362,7 +5337,7 @@
         <v>7.6040000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>55.2</v>
       </c>
@@ -5388,7 +5363,7 @@
         <v>7.1390000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>58.7</v>
       </c>
@@ -5414,7 +5389,7 @@
         <v>6.6210000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>62.1</v>
       </c>
@@ -5440,7 +5415,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>65.599999999999994</v>
       </c>
@@ -5466,7 +5441,7 @@
         <v>5.6109999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>69</v>
       </c>
@@ -5492,7 +5467,7 @@
         <v>5.0910000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>72.5</v>
       </c>
@@ -5518,7 +5493,7 @@
         <v>4.5590000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>75.900000000000006</v>
       </c>
@@ -5544,7 +5519,7 @@
         <v>4.0179999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>79.400000000000006</v>
       </c>
@@ -5570,7 +5545,7 @@
         <v>3.4660000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>82.9</v>
       </c>
@@ -5596,7 +5571,7 @@
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>86.3</v>
       </c>
@@ -5622,7 +5597,7 @@
         <v>2.3370000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>89.8</v>
       </c>
@@ -5648,7 +5623,7 @@
         <v>1.758</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>93.2</v>
       </c>
@@ -5674,7 +5649,7 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>96.7</v>
       </c>
@@ -5700,7 +5675,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>100.1</v>
       </c>
@@ -5726,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5740,7 +5715,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5766,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5786,7 +5761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5812,7 +5787,7 @@
         <v>12.577999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -5838,7 +5813,7 @@
         <v>12.605</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>8.1</v>
       </c>
@@ -5864,7 +5839,7 @@
         <v>12.622</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>12.1</v>
       </c>
@@ -5890,7 +5865,7 @@
         <v>12.627000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>16.100000000000001</v>
       </c>
@@ -5916,7 +5891,7 @@
         <v>12.617000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>20.100000000000001</v>
       </c>
@@ -5942,7 +5917,7 @@
         <v>12.592000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>24.2</v>
       </c>
@@ -5968,7 +5943,7 @@
         <v>12.548</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>28.2</v>
       </c>
@@ -5994,7 +5969,7 @@
         <v>12.483000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>32.200000000000003</v>
       </c>
@@ -6020,7 +5995,7 @@
         <v>12.397</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>36.200000000000003</v>
       </c>
@@ -6046,7 +6021,7 @@
         <v>12.287000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>40.299999999999997</v>
       </c>
@@ -6072,7 +6047,7 @@
         <v>12.148999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>44.3</v>
       </c>
@@ -6098,7 +6073,7 @@
         <v>11.978</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>48.3</v>
       </c>
@@ -6124,7 +6099,7 @@
         <v>11.772</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>52.3</v>
       </c>
@@ -6150,7 +6125,7 @@
         <v>11.477</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>56.4</v>
       </c>
@@ -6176,7 +6151,7 @@
         <v>11.036</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>60.4</v>
       </c>
@@ -6202,7 +6177,7 @@
         <v>10.492000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>64.400000000000006</v>
       </c>
@@ -6228,7 +6203,7 @@
         <v>9.8569999999999993</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>68.5</v>
       </c>
@@ -6254,7 +6229,7 @@
         <v>9.1449999999999996</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>72.5</v>
       </c>
@@ -6280,7 +6255,7 @@
         <v>8.4529999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>76.5</v>
       </c>
@@ -6306,7 +6281,7 @@
         <v>7.7489999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>80.5</v>
       </c>
@@ -6332,7 +6307,7 @@
         <v>7.0330000000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>84.6</v>
       </c>
@@ -6358,7 +6333,7 @@
         <v>6.3010000000000002</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>88.6</v>
       </c>
@@ -6384,7 +6359,7 @@
         <v>5.5549999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>92.6</v>
       </c>
@@ -6410,7 +6385,7 @@
         <v>4.7949999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>96.6</v>
       </c>
@@ -6436,7 +6411,7 @@
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>100.7</v>
       </c>
@@ -6462,7 +6437,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>104.7</v>
       </c>
@@ -6488,7 +6463,7 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>108.7</v>
       </c>
@@ -6514,7 +6489,7 @@
         <v>1.6259999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>112.7</v>
       </c>
@@ -6540,7 +6515,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>116.8</v>
       </c>
@@ -6566,7 +6541,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6580,7 +6555,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6606,7 +6581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6626,7 +6601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6652,7 +6627,7 @@
         <v>15.747</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4.5999999999999996</v>
       </c>
@@ -6678,7 +6653,7 @@
         <v>15.775</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>9.1999999999999993</v>
       </c>
@@ -6704,7 +6679,7 @@
         <v>15.795</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>13.8</v>
       </c>
@@ -6730,7 +6705,7 @@
         <v>15.804</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999999</v>
       </c>
@@ -6756,7 +6731,7 @@
         <v>15.802</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>23</v>
       </c>
@@ -6782,7 +6757,7 @@
         <v>15.786</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>27.6</v>
       </c>
@@ -6808,7 +6783,7 @@
         <v>15.753</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>32.200000000000003</v>
       </c>
@@ -6834,7 +6809,7 @@
         <v>15.702999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>36.799999999999997</v>
       </c>
@@ -6860,7 +6835,7 @@
         <v>15.634</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>41.4</v>
       </c>
@@ -6886,7 +6861,7 @@
         <v>15.545</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>46</v>
       </c>
@@ -6912,7 +6887,7 @@
         <v>15.433</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>50.6</v>
       </c>
@@ -6938,7 +6913,7 @@
         <v>15.292</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>55.2</v>
       </c>
@@ -6964,7 +6939,7 @@
         <v>15.119</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>59.8</v>
       </c>
@@ -6990,7 +6965,7 @@
         <v>14.894</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>64.400000000000006</v>
       </c>
@@ -7016,7 +6991,7 @@
         <v>14.468</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>69</v>
       </c>
@@ -7042,7 +7017,7 @@
         <v>13.849</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>73.599999999999994</v>
       </c>
@@ -7068,7 +7043,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>78.2</v>
       </c>
@@ -7094,7 +7069,7 @@
         <v>12.166</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>82.8</v>
       </c>
@@ -7120,7 +7095,7 @@
         <v>11.244999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>87.4</v>
       </c>
@@ -7146,7 +7121,7 @@
         <v>10.311</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>92</v>
       </c>
@@ -7172,7 +7147,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>96.6</v>
       </c>
@@ -7198,7 +7173,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>101.2</v>
       </c>
@@ -7224,7 +7199,7 @@
         <v>7.4009999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>105.8</v>
       </c>
@@ -7250,7 +7225,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>110.4</v>
       </c>
@@ -7276,7 +7251,7 @@
         <v>5.36</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>115</v>
       </c>
@@ -7302,7 +7277,7 @@
         <v>4.3150000000000004</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>119.6</v>
       </c>
@@ -7328,7 +7303,7 @@
         <v>3.2509999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>124.2</v>
       </c>
@@ -7354,7 +7329,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>128.80000000000001</v>
       </c>
@@ -7380,7 +7355,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>133.4</v>
       </c>
@@ -7406,7 +7381,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7420,7 +7395,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7446,7 +7421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7466,7 +7441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7492,7 +7467,7 @@
         <v>19.117999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5.2</v>
       </c>
@@ -7518,7 +7493,7 @@
         <v>19.146000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>10.3</v>
       </c>
@@ -7544,7 +7519,7 @@
         <v>19.167000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>15.5</v>
       </c>
@@ -7570,7 +7545,7 @@
         <v>19.181999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>20.7</v>
       </c>
@@ -7596,7 +7571,7 @@
         <v>19.189</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>25.9</v>
       </c>
@@ -7622,7 +7597,7 @@
         <v>19.186</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>31</v>
       </c>
@@ -7648,7 +7623,7 @@
         <v>19.172999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>36.200000000000003</v>
       </c>
@@ -7674,7 +7649,7 @@
         <v>19.149000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>41.4</v>
       </c>
@@ -7700,7 +7675,7 @@
         <v>19.113</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>46.6</v>
       </c>
@@ -7726,7 +7701,7 @@
         <v>19.062000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>51.7</v>
       </c>
@@ -7752,7 +7727,7 @@
         <v>18.997</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>56.9</v>
       </c>
@@ -7778,7 +7753,7 @@
         <v>18.916</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>62.1</v>
       </c>
@@ -7804,7 +7779,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>67.3</v>
       </c>
@@ -7830,7 +7805,7 @@
         <v>18.666</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>72.400000000000006</v>
       </c>
@@ -7856,7 +7831,7 @@
         <v>18.399000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>77.599999999999994</v>
       </c>
@@ -7882,7 +7857,7 @@
         <v>17.768999999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>82.8</v>
       </c>
@@ -7908,7 +7883,7 @@
         <v>16.882000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>88</v>
       </c>
@@ -7934,7 +7909,7 @@
         <v>15.752000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>93.1</v>
       </c>
@@ -7960,7 +7935,7 @@
         <v>14.563000000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>98.3</v>
       </c>
@@ -7986,7 +7961,7 @@
         <v>13.353999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>103.5</v>
       </c>
@@ -8012,7 +7987,7 @@
         <v>12.127000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>108.7</v>
       </c>
@@ -8038,7 +8013,7 @@
         <v>10.874000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>113.8</v>
       </c>
@@ -8064,7 +8039,7 @@
         <v>9.5960000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>119</v>
       </c>
@@ -8090,7 +8065,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>124.2</v>
       </c>
@@ -8116,7 +8091,7 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>129.4</v>
       </c>
@@ -8142,7 +8117,7 @@
         <v>5.609</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>134.5</v>
       </c>
@@ -8168,7 +8143,7 @@
         <v>4.2249999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>139.69999999999999</v>
       </c>
@@ -8194,7 +8169,7 @@
         <v>2.8279999999999998</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>144.9</v>
       </c>
@@ -8220,7 +8195,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>150.1</v>
       </c>
@@ -8246,7 +8221,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8260,7 +8235,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8286,7 +8261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8306,7 +8281,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8332,7 +8307,7 @@
         <v>22.635000000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5.8</v>
       </c>
@@ -8358,7 +8333,7 @@
         <v>22.661000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>11.5</v>
       </c>
@@ -8384,7 +8359,7 @@
         <v>22.687999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>17.3</v>
       </c>
@@ -8410,7 +8385,7 @@
         <v>22.715</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>23</v>
       </c>
@@ -8436,7 +8411,7 @@
         <v>22.741</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>28.8</v>
       </c>
@@ -8462,7 +8437,7 @@
         <v>22.768999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>34.5</v>
       </c>
@@ -8488,7 +8463,7 @@
         <v>22.795999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>40.299999999999997</v>
       </c>
@@ -8514,7 +8489,7 @@
         <v>22.821999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>46</v>
       </c>
@@ -8540,7 +8515,7 @@
         <v>22.847000000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>51.8</v>
       </c>
@@ -8566,7 +8541,7 @@
         <v>22.869</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>57.5</v>
       </c>
@@ -8592,7 +8567,7 @@
         <v>22.884</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>63.3</v>
       </c>
@@ -8618,7 +8593,7 @@
         <v>22.893000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>69</v>
       </c>
@@ -8644,7 +8619,7 @@
         <v>22.891999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>74.8</v>
       </c>
@@ -8670,7 +8645,7 @@
         <v>22.859000000000002</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>80.5</v>
       </c>
@@ -8696,7 +8671,7 @@
         <v>22.77</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>86.3</v>
       </c>
@@ -8722,7 +8697,7 @@
         <v>22.352</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>92</v>
       </c>
@@ -8748,7 +8723,7 @@
         <v>21.370999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>97.8</v>
       </c>
@@ -8774,7 +8749,7 @@
         <v>19.998000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>103.5</v>
       </c>
@@ -8800,7 +8775,7 @@
         <v>18.497</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>109.3</v>
       </c>
@@ -8826,7 +8801,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>115</v>
       </c>
@@ -8852,7 +8827,7 @@
         <v>15.407999999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>120.8</v>
       </c>
@@ -8878,7 +8853,7 @@
         <v>13.821</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>126.5</v>
       </c>
@@ -8904,7 +8879,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>132.30000000000001</v>
       </c>
@@ -8930,7 +8905,7 @@
         <v>10.544</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>138</v>
       </c>
@@ -8956,7 +8931,7 @@
         <v>8.8539999999999992</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>143.80000000000001</v>
       </c>
@@ -8982,7 +8957,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>149.6</v>
       </c>
@@ -9008,7 +8983,7 @@
         <v>5.3789999999999996</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>155.30000000000001</v>
       </c>
@@ -9034,7 +9009,7 @@
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>161.1</v>
       </c>
@@ -9060,7 +9035,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>166.8</v>
       </c>
@@ -9086,7 +9061,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9100,7 +9075,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9126,7 +9101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9146,7 +9121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9172,7 +9147,7 @@
         <v>27.422000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6.3</v>
       </c>
@@ -9198,7 +9173,7 @@
         <v>27.454999999999998</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>12.6</v>
       </c>
@@ -9224,7 +9199,7 @@
         <v>27.491</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>18.899999999999999</v>
       </c>
@@ -9250,7 +9225,7 @@
         <v>27.532</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>25.2</v>
       </c>
@@ -9276,7 +9251,7 @@
         <v>27.573</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>31.5</v>
       </c>
@@ -9302,7 +9277,7 @@
         <v>27.616</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>37.9</v>
       </c>
@@ -9328,7 +9303,7 @@
         <v>27.658999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>44.2</v>
       </c>
@@ -9354,7 +9329,7 @@
         <v>27.701000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>50.5</v>
       </c>
@@ -9380,7 +9355,7 @@
         <v>27.742999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>56.8</v>
       </c>
@@ -9406,7 +9381,7 @@
         <v>27.785</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>63.1</v>
       </c>
@@ -9432,7 +9407,7 @@
         <v>27.823</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>69.400000000000006</v>
       </c>
@@ -9458,7 +9433,7 @@
         <v>27.856999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>75.7</v>
       </c>
@@ -9484,7 +9459,7 @@
         <v>27.882999999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>82</v>
       </c>
@@ -9510,7 +9485,7 @@
         <v>27.885999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>88.3</v>
       </c>
@@ -9536,7 +9511,7 @@
         <v>27.853999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>94.6</v>
       </c>
@@ -9562,7 +9537,7 @@
         <v>27.771000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>101</v>
       </c>
@@ -9588,7 +9563,7 @@
         <v>27.055</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>107.3</v>
       </c>
@@ -9614,7 +9589,7 @@
         <v>25.332000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>113.6</v>
       </c>
@@ -9640,7 +9615,7 @@
         <v>23.411000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>119.9</v>
       </c>
@@ -9666,7 +9641,7 @@
         <v>21.489000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>126.2</v>
       </c>
@@ -9692,7 +9667,7 @@
         <v>19.542999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>132.5</v>
       </c>
@@ -9718,7 +9693,7 @@
         <v>17.550999999999998</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>138.80000000000001</v>
       </c>
@@ -9744,7 +9719,7 @@
         <v>15.519</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>145.1</v>
       </c>
@@ -9770,7 +9745,7 @@
         <v>13.452</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>151.4</v>
       </c>
@@ -9796,7 +9771,7 @@
         <v>11.352</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>157.69999999999999</v>
       </c>
@@ -9822,7 +9797,7 @@
         <v>9.1950000000000003</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>164</v>
       </c>
@@ -9848,7 +9823,7 @@
         <v>6.9720000000000004</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>170.4</v>
       </c>
@@ -9874,7 +9849,7 @@
         <v>4.7060000000000004</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>176.7</v>
       </c>
@@ -9900,7 +9875,7 @@
         <v>2.3889999999999998</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>183</v>
       </c>
@@ -9926,7 +9901,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9940,7 +9915,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9966,7 +9941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9986,7 +9961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -10012,7 +9987,7 @@
         <v>33.042000000000002</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6.9</v>
       </c>
@@ -10038,7 +10013,7 @@
         <v>33.082999999999998</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>13.7</v>
       </c>
@@ -10064,7 +10039,7 @@
         <v>33.268000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>20.6</v>
       </c>
@@ -10090,7 +10065,7 @@
         <v>33.305999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>27.4</v>
       </c>
@@ -10116,7 +10091,7 @@
         <v>33.351999999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>34.299999999999997</v>
       </c>
@@ -10142,7 +10117,7 @@
         <v>33.393000000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>41.2</v>
       </c>
@@ -10168,7 +10143,7 @@
         <v>33.427999999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>48</v>
       </c>
@@ -10194,7 +10169,7 @@
         <v>33.466999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>54.9</v>
       </c>
@@ -10220,7 +10195,7 @@
         <v>33.472999999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>61.7</v>
       </c>
@@ -10246,7 +10221,7 @@
         <v>33.514000000000003</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>68.599999999999994</v>
       </c>
@@ -10272,7 +10247,7 @@
         <v>33.576000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>75.400000000000006</v>
       </c>
@@ -10298,7 +10273,7 @@
         <v>33.655000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>82.3</v>
       </c>
@@ -10324,7 +10299,7 @@
         <v>33.744</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>89.2</v>
       </c>
@@ -10350,7 +10325,7 @@
         <v>33.82</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>96</v>
       </c>
@@ -10376,7 +10351,7 @@
         <v>33.692</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>102.9</v>
       </c>
@@ -10402,7 +10377,7 @@
         <v>33.816000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>109.7</v>
       </c>
@@ -10428,7 +10403,7 @@
         <v>33.698999999999998</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>116.6</v>
       </c>
@@ -10454,7 +10429,7 @@
         <v>32.521000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>123.5</v>
       </c>
@@ -10480,7 +10455,7 @@
         <v>30.588999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>130.30000000000001</v>
       </c>
@@ -10506,7 +10481,7 @@
         <v>28.486999999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>137.19999999999999</v>
       </c>
@@ -10532,7 +10507,7 @@
         <v>26.146000000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>144</v>
       </c>
@@ -10558,7 +10533,7 @@
         <v>23.649000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>150.9</v>
       </c>
@@ -10584,7 +10559,7 @@
         <v>21.065000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>157.80000000000001</v>
       </c>
@@ -10610,7 +10585,7 @@
         <v>18.114000000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>164.6</v>
       </c>
@@ -10636,7 +10611,7 @@
         <v>15.086</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>171.5</v>
       </c>
@@ -10662,7 +10637,7 @@
         <v>12.129</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>178.3</v>
       </c>
@@ -10688,7 +10663,7 @@
         <v>9.3149999999999995</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>185.2</v>
       </c>
@@ -10714,7 +10689,7 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>192</v>
       </c>
@@ -10740,7 +10715,7 @@
         <v>3.2970000000000002</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>198.9</v>
       </c>
@@ -10766,7 +10741,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10780,7 +10755,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10806,7 +10781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10826,7 +10801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10852,7 +10827,7 @@
         <v>38.555999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>7.5</v>
       </c>
@@ -10878,7 +10853,7 @@
         <v>38.610999999999997</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>15</v>
       </c>
@@ -10904,7 +10879,7 @@
         <v>38.667999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>22.4</v>
       </c>
@@ -10930,7 +10905,7 @@
         <v>38.743000000000002</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>29.9</v>
       </c>
@@ -10956,7 +10931,7 @@
         <v>39.183</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>37.4</v>
       </c>
@@ -10982,7 +10957,7 @@
         <v>39.259</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>44.9</v>
       </c>
@@ -11008,7 +10983,7 @@
         <v>39.332000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>52.3</v>
       </c>
@@ -11034,7 +11009,7 @@
         <v>39.401000000000003</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>59.8</v>
       </c>
@@ -11060,7 +11035,7 @@
         <v>39.091000000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>67.3</v>
       </c>
@@ -11086,7 +11061,7 @@
         <v>39.164000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>74.8</v>
       </c>
@@ -11112,7 +11087,7 @@
         <v>39.600999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>82.2</v>
       </c>
@@ -11138,7 +11113,7 @@
         <v>39.293999999999997</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>89.7</v>
       </c>
@@ -11164,7 +11139,7 @@
         <v>39.703000000000003</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>97.2</v>
       </c>
@@ -11190,7 +11165,7 @@
         <v>39.725999999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>104.7</v>
       </c>
@@ -11216,7 +11191,7 @@
         <v>39.703000000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>112.2</v>
       </c>
@@ -11242,7 +11217,7 @@
         <v>39.628999999999998</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>119.6</v>
       </c>
@@ -11268,7 +11243,7 @@
         <v>39.250999999999998</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>127.1</v>
       </c>
@@ -11294,7 +11269,7 @@
         <v>38.826000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>134.6</v>
       </c>
@@ -11320,7 +11295,7 @@
         <v>36.776000000000003</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>142.1</v>
       </c>
@@ -11346,7 +11321,7 @@
         <v>34.902000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>149.5</v>
       </c>
@@ -11372,7 +11347,7 @@
         <v>32.624000000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>157</v>
       </c>
@@ -11398,7 +11373,7 @@
         <v>29.914000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>164.5</v>
       </c>
@@ -11424,7 +11399,7 @@
         <v>26.489000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>172</v>
       </c>
@@ -11450,7 +11425,7 @@
         <v>23.175000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>179.4</v>
       </c>
@@ -11476,7 +11451,7 @@
         <v>20.027999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>186.9</v>
       </c>
@@ -11502,7 +11477,7 @@
         <v>16.949000000000002</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>194.4</v>
       </c>
@@ -11528,7 +11503,7 @@
         <v>13.211</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>201.9</v>
       </c>
@@ -11554,7 +11529,7 @@
         <v>9.1929999999999996</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>209.4</v>
       </c>
@@ -11580,7 +11555,7 @@
         <v>4.6319999999999997</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>216.8</v>
       </c>
@@ -11606,7 +11581,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11620,7 +11595,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11646,7 +11621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11666,7 +11641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11692,7 +11667,7 @@
         <v>46.326000000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>7.9</v>
       </c>
@@ -11718,7 +11693,7 @@
         <v>46.378</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>15.9</v>
       </c>
@@ -11744,7 +11719,7 @@
         <v>46.423000000000002</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>23.8</v>
       </c>
@@ -11770,7 +11745,7 @@
         <v>46.424999999999997</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>31.8</v>
       </c>
@@ -11796,7 +11771,7 @@
         <v>46.451000000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>39.700000000000003</v>
       </c>
@@ -11822,7 +11797,7 @@
         <v>46.418999999999997</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>47.6</v>
       </c>
@@ -11848,7 +11823,7 @@
         <v>46.335000000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>55.6</v>
       </c>
@@ -11874,7 +11849,7 @@
         <v>46.198</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>63.5</v>
       </c>
@@ -11900,7 +11875,7 @@
         <v>45.954999999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>71.5</v>
       </c>
@@ -11926,7 +11901,7 @@
         <v>45.802999999999997</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>79.400000000000006</v>
       </c>
@@ -11952,7 +11927,7 @@
         <v>45.683999999999997</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>87.4</v>
       </c>
@@ -11978,7 +11953,7 @@
         <v>45.601999999999997</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>95.3</v>
       </c>
@@ -12004,7 +11979,7 @@
         <v>44.872999999999998</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>103.2</v>
       </c>
@@ -12030,7 +12005,7 @@
         <v>45.287999999999997</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>111.2</v>
       </c>
@@ -12056,7 +12031,7 @@
         <v>45.04</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>119.1</v>
       </c>
@@ -12082,7 +12057,7 @@
         <v>44.24</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>127.1</v>
       </c>
@@ -12108,7 +12083,7 @@
         <v>44.302999999999997</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>135</v>
       </c>
@@ -12134,7 +12109,7 @@
         <v>43.435000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>142.9</v>
       </c>
@@ -12160,7 +12135,7 @@
         <v>42.265999999999998</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>150.9</v>
       </c>
@@ -12186,7 +12161,7 @@
         <v>40.131999999999998</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>158.80000000000001</v>
       </c>
@@ -12212,7 +12187,7 @@
         <v>37.765000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>166.8</v>
       </c>
@@ -12238,7 +12213,7 @@
         <v>35.067</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>174.7</v>
       </c>
@@ -12264,7 +12239,7 @@
         <v>31.225000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>182.7</v>
       </c>
@@ -12290,7 +12265,7 @@
         <v>26.902000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>190.6</v>
       </c>
@@ -12316,7 +12291,7 @@
         <v>22.661999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>198.5</v>
       </c>
@@ -12342,7 +12317,7 @@
         <v>18.920999999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>206.5</v>
       </c>
@@ -12368,7 +12343,7 @@
         <v>15.214</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>214.4</v>
       </c>
@@ -12394,35 +12369,33 @@
         <v>10.726000000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>222.4</v>
       </c>
-      <c r="B527" t="s">
-        <v>46</v>
-      </c>
-      <c r="C527" t="e" cm="1">
-        <f t="array" ref="C527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D527" t="e" cm="1">
-        <f t="array" ref="D527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E527" t="e" cm="1">
-        <f t="array" ref="E527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F527" t="e" cm="1">
-        <f t="array" ref="F527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G527" t="e" cm="1">
-        <f t="array" ref="G527">-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>1.05</v>
+      </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>230.3</v>
       </c>
